--- a/TheRocket/data/variables.xlsx
+++ b/TheRocket/data/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sk/Desktop/ICF /Shiller/github/TheRocket/TheRocket/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79DE56D-3E5A-FD43-9CF0-C8026B678F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98A902E-44AF-F743-ACB4-E5854C3296C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16940" activeTab="3" xr2:uid="{F762E12D-1FFF-2544-9934-8A4797DF9CC7}"/>
   </bookViews>
@@ -392,7 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -415,12 +415,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -479,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,13 +490,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7007,13 +7004,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -7082,13 +7079,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -7135,13 +7132,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -7166,13 +7163,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -7227,13 +7224,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -7761,13 +7758,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -8059,13 +8056,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -8246,8 +8243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDFF95C-CAD7-8B45-9744-1F5C96B333C5}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:E31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8274,13 +8271,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -8345,7 +8342,9 @@
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>61</v>
       </c>
@@ -8450,13 +8449,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -8487,13 +8486,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -8510,32 +8509,38 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -8603,13 +8608,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -8683,13 +8688,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -8698,7 +8703,7 @@
       <c r="B38">
         <v>266</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D38" s="2" t="s">

--- a/TheRocket/data/variables.xlsx
+++ b/TheRocket/data/variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sk/Desktop/ICF /Shiller/github/TheRocket/TheRocket/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soshe\Documents\GitHub\TheRocket\TheRocket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98A902E-44AF-F743-ACB4-E5854C3296C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB69666F-E676-44B4-8168-EA3D6A50A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16940" activeTab="3" xr2:uid="{F762E12D-1FFF-2544-9934-8A4797DF9CC7}"/>
+    <workbookView xWindow="4050" yWindow="2580" windowWidth="21600" windowHeight="12670" activeTab="1" xr2:uid="{F762E12D-1FFF-2544-9934-8A4797DF9CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="STRUCTURES" sheetId="5" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,10 +496,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,7 +534,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,19 +570,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,7 +825,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -839,20 +835,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -924,7 +922,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -934,20 +932,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1019,7 +1019,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1029,20 +1029,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1114,7 +1116,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1124,20 +1126,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1209,7 +1213,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1219,20 +1223,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1304,7 +1310,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1314,20 +1320,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1399,7 +1407,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1409,20 +1417,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1494,7 +1504,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1504,20 +1514,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1589,7 +1601,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1599,20 +1611,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1684,7 +1698,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1694,20 +1708,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1779,7 +1795,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1789,20 +1805,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1874,7 +1892,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1884,20 +1902,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1969,7 +1989,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1979,20 +1999,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2064,7 +2086,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2074,20 +2096,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2159,7 +2183,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2169,20 +2193,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2254,7 +2280,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2264,20 +2290,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2349,7 +2377,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2359,20 +2387,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2444,7 +2474,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2454,20 +2484,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2539,7 +2571,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2549,20 +2581,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2634,7 +2668,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2644,20 +2678,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2734,7 +2770,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2744,20 +2780,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2829,7 +2867,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2839,20 +2877,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2924,7 +2964,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2934,20 +2974,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3019,7 +3061,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3029,20 +3071,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3114,7 +3158,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3124,20 +3168,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3209,7 +3255,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3219,20 +3265,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3304,7 +3352,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3314,20 +3362,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3404,7 +3454,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3414,20 +3464,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3499,7 +3551,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3509,20 +3561,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3594,7 +3648,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3604,20 +3658,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3689,7 +3745,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3699,20 +3755,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3789,7 +3847,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3799,20 +3857,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3884,7 +3944,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3894,20 +3954,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3979,7 +4041,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3989,20 +4051,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4074,7 +4138,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4084,20 +4148,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4169,7 +4235,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4179,20 +4245,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4214,8 +4282,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>546100</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4264,7 +4332,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4274,20 +4342,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4309,8 +4379,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>546100</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4359,7 +4429,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4369,20 +4439,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4454,7 +4526,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4464,20 +4536,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4549,7 +4623,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4559,20 +4633,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4644,7 +4720,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4654,20 +4730,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4739,7 +4817,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4749,20 +4827,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4834,7 +4914,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4844,20 +4924,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4929,7 +5011,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4939,20 +5021,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5024,7 +5108,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5034,20 +5118,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5119,7 +5205,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5129,20 +5215,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5214,7 +5302,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5224,20 +5312,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5309,7 +5399,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5319,20 +5409,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5404,7 +5496,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5414,20 +5506,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5499,7 +5593,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5509,20 +5603,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5594,7 +5690,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5604,20 +5700,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5689,7 +5787,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5699,20 +5797,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5784,7 +5884,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5794,20 +5894,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5879,7 +5981,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5889,20 +5991,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5974,7 +6078,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5984,20 +6088,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6069,7 +6175,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6079,20 +6185,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6164,7 +6272,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6174,20 +6282,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6259,7 +6369,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6269,20 +6379,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6354,7 +6466,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6364,20 +6476,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6449,7 +6563,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6459,20 +6573,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6544,7 +6660,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6554,20 +6670,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6639,7 +6757,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6649,20 +6767,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6676,9 +6796,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6716,7 +6836,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6822,7 +6942,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6964,7 +7084,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6974,11 +7094,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F026DE90-7E8B-F545-B007-D15184FCF8D4}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="2"/>
@@ -6986,7 +7106,7 @@
     <col min="5" max="5" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -7003,7 +7123,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -7012,7 +7132,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -7023,7 +7143,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -7034,7 +7154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -7045,7 +7165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -7056,7 +7176,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -7067,7 +7187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -7078,7 +7198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -7087,7 +7207,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -7098,7 +7218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -7109,7 +7229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -7120,7 +7240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -7131,7 +7251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -7140,7 +7260,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -7151,7 +7271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -7162,7 +7282,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -7171,7 +7291,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -7179,7 +7299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -7190,7 +7310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -7201,7 +7321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -7212,7 +7332,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -7223,7 +7343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -7232,7 +7352,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -7244,7 +7364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -7256,7 +7376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -7731,16 +7851,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF97D7D-6D35-944A-BC59-497A90DC919B}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -7757,7 +7877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
@@ -7766,7 +7886,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -7779,7 +7899,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -7792,7 +7912,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -7805,12 +7925,12 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2">
-        <v>15</v>
+        <v>17.12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
@@ -7818,12 +7938,12 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2">
-        <v>8</v>
+        <v>9.2469999999999999</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>39</v>
@@ -7831,12 +7951,12 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>3.02</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>39</v>
@@ -7844,7 +7964,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -8029,16 +8149,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07346C28-6DE3-DB46-A836-E40E364C1D11}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView zoomScale="95" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -8055,7 +8175,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
@@ -8064,12 +8184,12 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="2">
-        <v>14.4</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -8077,7 +8197,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -8090,12 +8210,12 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="2">
-        <v>2.88</v>
+        <v>3.52</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
@@ -8103,7 +8223,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -8116,21 +8236,21 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8243,17 +8363,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDFF95C-CAD7-8B45-9744-1F5C96B333C5}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="99" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -8270,7 +8390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -8279,7 +8399,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -8289,7 +8409,7 @@
       <c r="C3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -8301,7 +8421,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -8313,7 +8433,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -8325,7 +8445,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -8338,7 +8458,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -8353,7 +8473,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -8365,7 +8485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -8376,7 +8496,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -8387,7 +8507,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -8398,7 +8518,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -8412,7 +8532,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -8426,7 +8546,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -8437,7 +8557,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -8448,7 +8568,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>77</v>
       </c>
@@ -8457,7 +8577,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -8471,7 +8591,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -8485,7 +8605,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
@@ -8494,7 +8614,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -8508,7 +8628,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -8517,23 +8637,23 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>80</v>
       </c>
@@ -8542,7 +8662,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -8554,7 +8674,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
@@ -8569,7 +8689,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
@@ -8581,7 +8701,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -8596,7 +8716,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
@@ -8607,7 +8727,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>115</v>
       </c>
@@ -8616,7 +8736,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -8631,7 +8751,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
@@ -8645,7 +8765,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
@@ -8659,7 +8779,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -8673,7 +8793,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -8687,7 +8807,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>81</v>
       </c>
@@ -8696,21 +8816,21 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B38">
         <v>266</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" t="s">
         <v>111</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>103</v>
       </c>

--- a/TheRocket/data/variables.xlsx
+++ b/TheRocket/data/variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soshe\Documents\GitHub\TheRocket\TheRocket\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xandergarcia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB69666F-E676-44B4-8168-EA3D6A50A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA86B3DB-64A0-964B-8810-3D3FE859CEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2580" windowWidth="21600" windowHeight="12670" activeTab="1" xr2:uid="{F762E12D-1FFF-2544-9934-8A4797DF9CC7}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{F762E12D-1FFF-2544-9934-8A4797DF9CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="STRUCTURES" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="119">
   <si>
     <t>vehicle_mass_dry</t>
   </si>
@@ -386,6 +386,15 @@
   </si>
   <si>
     <t>VOLUMETRIC INPUTS</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>determined by software</t>
+  </si>
+  <si>
+    <t>up to date -&gt; might change later</t>
   </si>
 </sst>
 </file>
@@ -566,7 +575,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,19 +627,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,19 +683,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,11 +703,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
@@ -706,23 +715,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
@@ -738,15 +747,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,14 +817,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -825,7 +834,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -835,22 +844,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -905,14 +912,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -922,7 +929,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -932,22 +939,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1002,14 +1007,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1019,7 +1024,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1029,22 +1034,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1099,14 +1102,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1116,7 +1119,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1126,22 +1129,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1196,14 +1197,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1213,7 +1214,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1223,22 +1224,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1293,14 +1292,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1310,7 +1309,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1320,22 +1319,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1390,14 +1387,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1407,7 +1404,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1417,22 +1414,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1487,14 +1482,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1504,7 +1499,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1514,22 +1509,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1584,14 +1577,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1601,7 +1594,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1611,22 +1604,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1681,14 +1672,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1698,7 +1689,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1708,22 +1699,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1778,14 +1767,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1795,7 +1784,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1805,22 +1794,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1875,14 +1862,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1892,7 +1879,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1902,22 +1889,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1972,14 +1957,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1989,7 +1974,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1999,22 +1984,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2069,14 +2052,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2086,7 +2069,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2096,22 +2079,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2166,14 +2147,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2183,7 +2164,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2193,22 +2174,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2263,14 +2242,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2280,7 +2259,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2290,22 +2269,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2360,14 +2337,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2377,7 +2354,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2387,22 +2364,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2457,14 +2432,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2474,7 +2449,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2484,22 +2459,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2554,14 +2527,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2571,7 +2544,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2581,22 +2554,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2651,14 +2622,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2668,7 +2639,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2678,22 +2649,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2753,14 +2722,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2770,7 +2739,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2780,22 +2749,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2850,14 +2817,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2867,7 +2834,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2877,22 +2844,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2947,14 +2912,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2964,7 +2929,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2974,22 +2939,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3044,14 +3007,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3061,7 +3024,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3071,22 +3034,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3141,14 +3102,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3158,7 +3119,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3168,22 +3129,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3238,14 +3197,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3255,7 +3214,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3265,22 +3224,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3335,14 +3292,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3352,7 +3309,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3362,22 +3319,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3437,14 +3392,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3454,7 +3409,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3464,22 +3419,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3534,14 +3487,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3551,7 +3504,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3561,22 +3514,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3631,14 +3582,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3648,7 +3599,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3658,22 +3609,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3728,14 +3677,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3745,7 +3694,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3755,22 +3704,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3830,14 +3777,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3847,7 +3794,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3857,22 +3804,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3927,14 +3872,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3944,7 +3889,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3954,22 +3899,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4024,14 +3967,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -4041,7 +3984,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4051,22 +3994,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4121,14 +4062,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -4138,7 +4079,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4148,22 +4089,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4218,14 +4157,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -4235,7 +4174,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4245,22 +4184,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4282,8 +4219,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>546100</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>2012</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4315,14 +4252,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -4332,7 +4269,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4342,22 +4279,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4379,8 +4314,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>546100</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>2012</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4412,14 +4347,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -4429,7 +4364,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4439,22 +4374,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4509,14 +4442,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -4526,7 +4459,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4536,22 +4469,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4606,14 +4537,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -4623,7 +4554,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4633,22 +4564,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4703,14 +4632,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -4720,7 +4649,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4730,22 +4659,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4800,14 +4727,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -4817,7 +4744,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4827,22 +4754,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4897,14 +4822,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -4914,7 +4839,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4924,22 +4849,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4994,14 +4917,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -5011,7 +4934,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5021,22 +4944,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5091,14 +5012,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -5108,7 +5029,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5118,22 +5039,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5188,14 +5107,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -5205,7 +5124,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5215,22 +5134,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5285,14 +5202,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -5302,7 +5219,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5312,22 +5229,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5382,14 +5297,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -5399,7 +5314,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5409,22 +5324,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5479,14 +5392,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -5496,7 +5409,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5506,22 +5419,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5576,14 +5487,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -5593,7 +5504,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5603,22 +5514,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5673,14 +5582,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -5690,7 +5599,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5700,22 +5609,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5770,14 +5677,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -5787,7 +5694,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5797,22 +5704,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5867,14 +5772,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -5884,7 +5789,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5894,22 +5799,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5964,14 +5867,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -5981,7 +5884,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5991,22 +5894,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6061,14 +5962,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -6078,7 +5979,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6088,22 +5989,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6158,14 +6057,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -6175,7 +6074,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6185,22 +6084,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6255,14 +6152,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -6272,7 +6169,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6282,22 +6179,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6352,14 +6247,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -6369,7 +6264,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6379,22 +6274,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6449,14 +6342,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -6466,7 +6359,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6476,22 +6369,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6546,14 +6437,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -6563,7 +6454,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6573,22 +6464,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6643,14 +6532,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -6660,7 +6549,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6670,22 +6559,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6740,14 +6627,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -6757,7 +6644,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6767,22 +6654,20 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -7094,11 +6979,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F026DE90-7E8B-F545-B007-D15184FCF8D4}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="2"/>
@@ -7106,7 +6991,7 @@
     <col min="5" max="5" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -7123,7 +7008,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -7132,7 +7017,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -7143,7 +7028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -7154,7 +7039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -7165,7 +7050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -7176,7 +7061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -7187,7 +7072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -7198,7 +7083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -7207,7 +7092,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -7218,7 +7103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -7229,7 +7114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -7240,7 +7125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -7251,7 +7136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -7260,7 +7145,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -7271,7 +7156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -7282,7 +7167,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -7291,7 +7176,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -7299,7 +7184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -7310,7 +7195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -7321,7 +7206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -7332,7 +7217,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -7343,7 +7228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -7352,7 +7237,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -7364,7 +7249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -7376,7 +7261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -7849,18 +7734,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF97D7D-6D35-944A-BC59-497A90DC919B}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -7876,8 +7761,14 @@
       <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
@@ -7886,7 +7777,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -7899,7 +7790,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -7912,7 +7803,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -7925,7 +7816,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -7938,7 +7829,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -7951,7 +7842,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -7963,8 +7854,11 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -8149,16 +8043,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07346C28-6DE3-DB46-A836-E40E364C1D11}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
+    <sheetView zoomScale="168" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -8175,7 +8069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
@@ -8184,7 +8078,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -8197,7 +8091,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -8210,7 +8104,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -8223,7 +8117,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -8236,21 +8130,21 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8361,19 +8255,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDFF95C-CAD7-8B45-9744-1F5C96B333C5}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -8389,8 +8283,14 @@
       <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -8399,7 +8299,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -8409,7 +8309,7 @@
       <c r="C3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -8420,8 +8320,11 @@
         <v>39</v>
       </c>
       <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -8432,8 +8335,11 @@
         <v>39</v>
       </c>
       <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -8445,7 +8351,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -8458,7 +8364,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -8473,7 +8379,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -8485,7 +8391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -8496,7 +8402,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -8507,7 +8413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -8518,7 +8424,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -8532,7 +8438,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -8546,7 +8452,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -8557,7 +8463,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -8568,7 +8474,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>77</v>
       </c>
@@ -8577,7 +8483,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -8590,8 +8496,11 @@
       <c r="D18" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -8604,8 +8513,11 @@
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="F19" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
@@ -8614,12 +8526,12 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C21" t="s">
         <v>76</v>
@@ -8628,7 +8540,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -8637,23 +8549,29 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>80</v>
       </c>
@@ -8662,7 +8580,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -8674,7 +8592,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
@@ -8689,7 +8607,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
@@ -8701,7 +8619,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -8716,7 +8634,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
@@ -8727,7 +8645,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>115</v>
       </c>
@@ -8736,13 +8654,12 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B32">
-        <f>STRUCTURES!B5</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -8751,7 +8668,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
@@ -8765,7 +8682,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
@@ -8779,7 +8696,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -8792,8 +8709,11 @@
       <c r="D35" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="F35" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -8806,8 +8726,11 @@
       <c r="D36" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F36" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>81</v>
       </c>
@@ -8816,7 +8739,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>102</v>
       </c>
@@ -8830,7 +8753,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>103</v>
       </c>

--- a/TheRocket/data/variables.xlsx
+++ b/TheRocket/data/variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xandergarcia/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soshe\Documents\GitHub\TheRocket\TheRocket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA86B3DB-64A0-964B-8810-3D3FE859CEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B672C85A-AACA-4074-ABF3-318F844CD57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{F762E12D-1FFF-2544-9934-8A4797DF9CC7}"/>
+    <workbookView xWindow="4390" yWindow="1420" windowWidth="21600" windowHeight="14170" activeTab="1" xr2:uid="{F762E12D-1FFF-2544-9934-8A4797DF9CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="STRUCTURES" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
   <si>
     <t>vehicle_mass_dry</t>
   </si>
@@ -388,13 +388,7 @@
     <t>VOLUMETRIC INPUTS</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>determined by software</t>
-  </si>
-  <si>
-    <t>up to date -&gt; might change later</t>
   </si>
 </sst>
 </file>
@@ -575,7 +569,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,11 +621,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,11 +709,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,11 +721,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
@@ -834,7 +828,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -844,20 +838,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -929,7 +925,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -939,20 +935,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1024,7 +1022,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1034,20 +1032,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1119,7 +1119,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1129,20 +1129,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1214,7 +1216,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1224,20 +1226,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1309,7 +1313,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1319,20 +1323,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1404,7 +1410,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1414,20 +1420,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1499,7 +1507,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1509,20 +1517,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1594,7 +1604,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1604,20 +1614,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1689,7 +1701,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1699,20 +1711,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1784,7 +1798,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1794,20 +1808,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1879,7 +1895,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1889,20 +1905,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -1974,7 +1992,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1984,20 +2002,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2069,7 +2089,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2079,20 +2099,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2164,7 +2186,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2174,20 +2196,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2259,7 +2283,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2269,20 +2293,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2354,7 +2380,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2364,20 +2390,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2449,7 +2477,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2459,20 +2487,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2544,7 +2574,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2554,20 +2584,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2639,7 +2671,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2649,20 +2681,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2739,7 +2773,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2749,20 +2783,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2834,7 +2870,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2844,20 +2880,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -2929,7 +2967,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2939,20 +2977,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3024,7 +3064,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3034,20 +3074,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3119,7 +3161,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3129,20 +3171,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3214,7 +3258,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3224,20 +3268,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3309,7 +3355,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3319,20 +3365,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3409,7 +3457,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3419,20 +3467,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3504,7 +3554,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3514,20 +3564,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3599,7 +3651,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3609,20 +3661,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3694,7 +3748,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3704,20 +3758,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3794,7 +3850,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3804,20 +3860,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3889,7 +3947,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3899,20 +3957,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -3984,7 +4044,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3994,20 +4054,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4079,7 +4141,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4089,20 +4151,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4174,7 +4238,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4184,20 +4248,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4219,8 +4285,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>546100</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>2012</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4269,7 +4335,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4279,20 +4345,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4314,8 +4382,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>546100</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>2012</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4364,7 +4432,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4374,20 +4442,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4459,7 +4529,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4469,20 +4539,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4554,7 +4626,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4564,20 +4636,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4649,7 +4723,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4659,20 +4733,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4744,7 +4820,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4754,20 +4830,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4839,7 +4917,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4849,20 +4927,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -4934,7 +5014,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4944,20 +5024,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5029,7 +5111,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5039,20 +5121,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5124,7 +5208,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5134,20 +5218,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5219,7 +5305,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5229,20 +5315,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5314,7 +5402,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5324,20 +5412,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5409,7 +5499,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5419,20 +5509,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5504,7 +5596,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5514,20 +5606,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5599,7 +5693,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5609,20 +5703,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5694,7 +5790,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5704,20 +5800,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5789,7 +5887,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5799,20 +5897,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5884,7 +5984,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5894,20 +5994,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -5979,7 +6081,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5989,20 +6091,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6074,7 +6178,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6084,20 +6188,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6169,7 +6275,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6179,20 +6285,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6264,7 +6372,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6274,20 +6382,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6359,7 +6469,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6369,20 +6479,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6454,7 +6566,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6464,20 +6576,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6549,7 +6663,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6559,20 +6673,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6644,7 +6760,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6654,20 +6770,22 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -6983,7 +7101,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="2"/>
@@ -6991,7 +7109,7 @@
     <col min="5" max="5" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -7008,7 +7126,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -7017,7 +7135,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -7028,7 +7146,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -7039,7 +7157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -7050,7 +7168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -7061,7 +7179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -7072,7 +7190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -7083,7 +7201,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -7092,7 +7210,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -7103,7 +7221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -7114,7 +7232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -7125,7 +7243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -7136,7 +7254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -7145,7 +7263,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -7156,7 +7274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -7167,7 +7285,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -7176,7 +7294,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -7184,7 +7302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -7195,7 +7313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -7206,7 +7324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -7217,7 +7335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -7228,7 +7346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -7237,7 +7355,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -7249,7 +7367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -7261,7 +7379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -7734,18 +7852,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF97D7D-6D35-944A-BC59-497A90DC919B}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -7761,14 +7879,9 @@
       <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>118</v>
-      </c>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
@@ -7777,7 +7890,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -7790,7 +7903,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -7803,7 +7916,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -7816,7 +7929,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -7829,7 +7942,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -7842,7 +7955,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -7854,11 +7967,8 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -8047,12 +8157,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -8069,7 +8179,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
@@ -8078,7 +8188,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -8091,7 +8201,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -8104,7 +8214,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -8117,7 +8227,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -8130,21 +8240,21 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8255,19 +8365,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDFF95C-CAD7-8B45-9744-1F5C96B333C5}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -8283,14 +8393,9 @@
       <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>118</v>
-      </c>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -8299,7 +8404,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -8309,7 +8414,7 @@
       <c r="C3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -8320,11 +8425,8 @@
         <v>39</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -8335,11 +8437,8 @@
         <v>39</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -8351,7 +8450,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -8364,7 +8463,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -8379,7 +8478,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -8391,7 +8490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -8402,7 +8501,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -8413,7 +8512,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -8424,7 +8523,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -8438,7 +8537,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -8452,7 +8551,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -8463,7 +8562,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -8474,7 +8573,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>77</v>
       </c>
@@ -8483,7 +8582,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -8496,11 +8595,8 @@
       <c r="D18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F18" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -8513,11 +8609,8 @@
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F19" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
@@ -8526,7 +8619,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -8540,7 +8633,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -8549,7 +8642,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
@@ -8557,10 +8650,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
@@ -8568,10 +8661,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>80</v>
       </c>
@@ -8580,7 +8673,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -8592,7 +8685,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
@@ -8607,7 +8700,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
@@ -8619,7 +8712,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -8634,7 +8727,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
@@ -8645,7 +8738,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>115</v>
       </c>
@@ -8654,7 +8747,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -8668,7 +8761,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
@@ -8682,7 +8775,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
@@ -8696,7 +8789,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -8709,11 +8802,8 @@
       <c r="D35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F35" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -8726,11 +8816,8 @@
       <c r="D36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F36" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>81</v>
       </c>
@@ -8739,7 +8826,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>102</v>
       </c>
@@ -8753,7 +8840,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>103</v>
       </c>
